--- a/matriz_riesgos_v2.xlsx
+++ b/matriz_riesgos_v2.xlsx
@@ -1159,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -6337,6 +6337,321 @@
         </is>
       </c>
       <c r="I126" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>EVA-001</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>A-001</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2026-01-22 17:19:46</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>P-001</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>¿Tiene backups automáticos verificados?</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>5</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>EVA-001</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>A-001</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2026-01-22 17:19:46</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>P-002</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>¿Tiene monitoreo centralizado y alertas?</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>4</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>EVA-001</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>A-001</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2026-01-22 17:19:46</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>P-003</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>¿Los datos sensibles están cifrados en reposo?</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>5</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>EVA-001</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>A-001</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2026-01-22 17:19:46</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>P-004</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>¿Existe control de cambios y despliegue?</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>3</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>EVA-001</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>A-001</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2026-01-22 17:19:46</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>IA-172118-1</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>¿El sistema cuenta con redundancia que permita cumplir el RTO objetivo del activo?</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>4</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>EVA-001</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>A-001</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2026-01-22 17:19:46</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>IA-172118-2</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>¿Los respaldos y replicación permiten minimizar la pérdida de datos dentro del umbral esperado?</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>4</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>EVA-001</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>A-001</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2026-01-22 17:19:46</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>IA-172118-3</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>¿Hay controles para mantener la confidencialidad de datos durante contingencia y restauración?</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>3</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
         <is>
           <t>IA</t>
         </is>
@@ -6408,7 +6723,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-01-22 16:41:26</t>
+          <t>2026-01-22 17:21:20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
